--- a/393-contenu-fhir---gestion-des-slices-remontant-un-warning/ig/StructureDefinition-tddui-task-transport.xlsx
+++ b/393-contenu-fhir---gestion-des-slices-remontant-un-warning/ig/StructureDefinition-tddui-task-transport.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T14:33:34+00:00</t>
+    <t>2025-12-05T08:38:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/393-contenu-fhir---gestion-des-slices-remontant-un-warning/ig/StructureDefinition-tddui-task-transport.xlsx
+++ b/393-contenu-fhir---gestion-des-slices-remontant-un-warning/ig/StructureDefinition-tddui-task-transport.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:38:20+00:00</t>
+    <t>2025-12-16T16:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/393-contenu-fhir---gestion-des-slices-remontant-un-warning/ig/StructureDefinition-tddui-task-transport.xlsx
+++ b/393-contenu-fhir---gestion-des-slices-remontant-un-warning/ig/StructureDefinition-tddui-task-transport.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0-ballot</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-16T16:02:43+00:00</t>
+    <t>2025-12-17T09:55:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/393-contenu-fhir---gestion-des-slices-remontant-un-warning/ig/StructureDefinition-tddui-task-transport.xlsx
+++ b/393-contenu-fhir---gestion-des-slices-remontant-un-warning/ig/StructureDefinition-tddui-task-transport.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3854" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3846" uniqueCount="522">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-17T09:55:45+00:00</t>
+    <t>2025-12-17T14:41:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1361,7 +1361,7 @@
     <t>Inputs are named to enable task automation to bind data and pass it from one task to the next.</t>
   </si>
   <si>
-    <t>Codes to identify types of input parameters.  These will typically be specific to a particular workflow.  E.g. "Comparison source", "Applicable consent", "Concomitent Medications", etc.</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/input-tddui-task-transport-valueset</t>
   </si>
   <si>
     <t>Task.input.value[x]</t>
@@ -2005,8 +2005,8 @@
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="145.00390625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.33984375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="143.0390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="69.46484375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -8287,13 +8287,11 @@
         <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="Y54" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="Y54" s="2"/>
+      <c r="Z54" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>79</v>
@@ -8991,13 +8989,11 @@
         <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="Y60" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="Y60" s="2"/>
+      <c r="Z60" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>79</v>
@@ -9693,13 +9689,11 @@
         <v>79</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="Y66" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="Y66" s="2"/>
+      <c r="Z66" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>79</v>
@@ -10397,13 +10391,11 @@
         <v>79</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="Y72" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="Y72" s="2"/>
+      <c r="Z72" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>79</v>
@@ -11101,13 +11093,11 @@
         <v>79</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="Y78" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="Y78" s="2"/>
+      <c r="Z78" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>79</v>
@@ -11805,13 +11795,11 @@
         <v>79</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="Y84" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="Y84" s="2"/>
+      <c r="Z84" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>79</v>
@@ -12509,13 +12497,11 @@
         <v>79</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="Y90" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="Y90" s="2"/>
+      <c r="Z90" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>79</v>
@@ -13213,13 +13199,11 @@
         <v>79</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="Y96" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="Y96" s="2"/>
+      <c r="Z96" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>79</v>

--- a/393-contenu-fhir---gestion-des-slices-remontant-un-warning/ig/StructureDefinition-tddui-task-transport.xlsx
+++ b/393-contenu-fhir---gestion-des-slices-remontant-un-warning/ig/StructureDefinition-tddui-task-transport.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-17T14:41:39+00:00</t>
+    <t>2025-12-18T10:03:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
